--- a/yourtour/documents/游客APP开发计划.xlsx
+++ b/yourtour/documents/游客APP开发计划.xlsx
@@ -1,338 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\yt\yourtour\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView windowWidth="16973" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="游客APP开发计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游客APP开发计划!$A$1:$J$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
   </si>
   <si>
     <t>产品设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>进入系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启动页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>欢迎页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告活动页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
   </si>
   <si>
     <t>推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推荐页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编辑推荐详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游徒推荐详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大家都在玩详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预订服务列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预订服务详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务订购页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务支付页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地切换页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地活动列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地服务列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地游玩列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地行程列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目的地百科列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较高</t>
   </si>
   <si>
     <t>服务详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>达人详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游玩详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>百科详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发布百科页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>达人行程模板页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前行程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划中行程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待评价行程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游客定制行程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行程详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>写随记页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行程账单页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行程聊天页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行程评价页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旅行车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旅行车页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人中心首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>找回密码页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收藏页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关注页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>想去页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>私信列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>私信聊天页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>足迹页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
   </si>
   <si>
     <t>投诉页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提交投诉建议页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钱包页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>较高</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,20 +258,363 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,55 +624,339 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -430,7 +974,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -615,158 +1159,158 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="General">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="General">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="General">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="General">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="General">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="21" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="22" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="23" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="24" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="25" c:formatCode="General">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="26" c:formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="28" c:formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="29" c:formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="30" c:formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="31" c:formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="General">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="33" c:formatCode="General">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="34" c:formatCode="General">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="35" c:formatCode="General">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="36" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="37" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="38" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="39" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="40" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="41" c:formatCode="General">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22</c:v>
+                <c:pt idx="42" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="General">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,164 +1496,165 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>-42473</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>-42473</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="General">
                   <c:v>-42473</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="General">
                   <c:v>-42473</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="General">
                   <c:v>-42473</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>-42478</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>-42478</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>-42478</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="General">
+                  <c:v>-42478</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>-42478</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="General">
                   <c:v>-42474</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="General">
                   <c:v>-42474</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="General">
                   <c:v>-42474</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="General">
                   <c:v>-42475</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="General">
                   <c:v>-42475</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="General">
                   <c:v>-42475</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="General">
                   <c:v>-42475</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="General">
                   <c:v>-42475</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-42478</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="21" c:formatCode="General">
                   <c:v>-42479</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="22" c:formatCode="General">
                   <c:v>-42479</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="23" c:formatCode="General">
                   <c:v>-42479</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="24" c:formatCode="General">
                   <c:v>-42479</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="25" c:formatCode="General">
                   <c:v>-42479</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="26" c:formatCode="General">
+                  <c:v>-42479</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="General">
                   <c:v>-42480</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="28" c:formatCode="General">
                   <c:v>-42480</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="29" c:formatCode="General">
                   <c:v>-42480</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="30" c:formatCode="General">
                   <c:v>-42480</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="31" c:formatCode="General">
+                  <c:v>-42480</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="General">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="33" c:formatCode="General">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="34" c:formatCode="General">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="35" c:formatCode="General">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>-42481</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="36" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="37" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="38" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="39" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="40" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="41" c:formatCode="General">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>-42482</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-42482</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-42482</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-42482</c:v>
+                <c:pt idx="42" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="General">
+                  <c:v>-42483</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="General">
+                  <c:v>-42483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1147,7 +1692,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1163,7 +1708,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="363835552"/>
@@ -1171,6 +1715,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1184,6 +1729,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1208,7 +1754,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1224,7 +1770,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="363838688"/>
@@ -1260,18 +1805,17 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1823,7 +2367,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1837,16 +2381,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7943850" y="76200"/>
+        <a:ext cx="7077075" cy="9589770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1859,137 +2401,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="页面清单"/>
-      <sheetName val="原型任务计划表"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>1~5</v>
-          </cell>
-          <cell r="H3">
-            <v>13</v>
-          </cell>
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>6~8</v>
-          </cell>
-          <cell r="H4">
-            <v>14</v>
-          </cell>
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>9~13</v>
-          </cell>
-          <cell r="H5">
-            <v>15</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>14~19</v>
-          </cell>
-          <cell r="H6">
-            <v>18</v>
-          </cell>
-          <cell r="I6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>20~23、26</v>
-          </cell>
-          <cell r="H7">
-            <v>19</v>
-          </cell>
-          <cell r="I7">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>24、25、27、28</v>
-          </cell>
-          <cell r="H8">
-            <v>20</v>
-          </cell>
-          <cell r="I8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>29</v>
-          </cell>
-          <cell r="H9">
-            <v>21</v>
-          </cell>
-          <cell r="I9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>30~34</v>
-          </cell>
-          <cell r="H10">
-            <v>21</v>
-          </cell>
-          <cell r="I10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>35~42</v>
-          </cell>
-          <cell r="H11">
-            <v>22</v>
-          </cell>
-          <cell r="I11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>43~44</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="31363B"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2024,7 +2444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2059,7 +2479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2234,23 +2654,19 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -2262,50 +2678,50 @@
     <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="15.6" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2318,20 +2734,20 @@
         <f t="shared" ref="I2:I33" si="1">G2-E2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2344,20 +2760,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2370,20 +2786,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>42473</v>
@@ -2391,27 +2807,27 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
       <c r="H5" s="2">
-        <f>DAY(E5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I5" s="2">
-        <f>G5-E5</f>
+        <f t="shared" si="1"/>
         <v>-42473</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="4">
         <v>42473</v>
@@ -2426,20 +2842,20 @@
         <f t="shared" ref="I6:I52" si="3">G6-E6</f>
         <v>-42473</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>42473</v>
@@ -2454,20 +2870,20 @@
         <f t="shared" si="3"/>
         <v>-42473</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
         <v>42473</v>
@@ -2482,20 +2898,20 @@
         <f t="shared" si="3"/>
         <v>-42473</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>42473</v>
@@ -2510,150 +2926,160 @@
         <f t="shared" si="3"/>
         <v>-42473</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42478</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42478</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>42478</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42478</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42478</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42478</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42478</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42478</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42478</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42478</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
         <v>42474</v>
@@ -2668,20 +3094,20 @@
         <f t="shared" si="3"/>
         <v>-42474</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4">
         <v>42474</v>
@@ -2696,20 +3122,20 @@
         <f t="shared" si="3"/>
         <v>-42474</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4">
         <v>42474</v>
@@ -2724,20 +3150,20 @@
         <f t="shared" si="3"/>
         <v>-42474</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4">
         <v>42475</v>
@@ -2752,20 +3178,20 @@
         <f t="shared" si="3"/>
         <v>-42475</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4">
         <v>42475</v>
@@ -2780,20 +3206,20 @@
         <f t="shared" si="3"/>
         <v>-42475</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4">
         <v>42475</v>
@@ -2808,20 +3234,20 @@
         <f t="shared" si="3"/>
         <v>-42475</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>42475</v>
@@ -2836,20 +3262,20 @@
         <f t="shared" si="3"/>
         <v>-42475</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4">
         <v>42475</v>
@@ -2864,580 +3290,580 @@
         <f t="shared" si="3"/>
         <v>-42475</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>42478</v>
+        <v>42479</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
-        <v>42478</v>
+        <v>42479</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="4">
-        <v>42478</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42479</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="4">
-        <v>42478</v>
+        <v>37</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42479</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="4">
-        <v>42478</v>
+      <c r="E27" s="5">
+        <v>42479</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="4">
-        <v>42478</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42479</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42479</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4">
-        <v>42479</v>
+        <v>42480</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42480</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="4">
-        <v>42479</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="5">
+        <v>42480</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42480</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>42</v>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="4">
-        <v>42479</v>
+        <v>12</v>
+      </c>
+      <c r="E31" s="5">
+        <v>42480</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42480</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="4">
-        <v>42479</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="5">
+        <v>42480</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42480</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="4">
-        <v>42479</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="5">
+        <v>42480</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42480</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E34" s="4">
-        <v>42480</v>
+        <v>42481</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42481</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="4">
-        <v>42480</v>
+        <v>37</v>
+      </c>
+      <c r="E35" s="5">
+        <v>42481</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42481</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="4">
-        <v>42480</v>
+        <v>37</v>
+      </c>
+      <c r="E36" s="5">
+        <v>42481</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42481</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>48</v>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="4">
-        <v>42480</v>
+        <v>37</v>
+      </c>
+      <c r="E37" s="5">
+        <v>42481</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42481</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E38" s="4">
-        <v>42481</v>
+        <v>42482</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="3"/>
-        <v>-42481</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42482</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>52</v>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="4">
-        <v>42481</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="5">
+        <v>42482</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="3"/>
-        <v>-42481</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42482</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>53</v>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="4">
-        <v>42481</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="5">
+        <v>42482</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="3"/>
-        <v>-42481</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42482</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>54</v>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="4">
-        <v>42481</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="5">
+        <v>42482</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="3"/>
-        <v>-42481</v>
-      </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42482</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>55</v>
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="4">
-        <v>42481</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="5">
+        <v>42482</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="3"/>
-        <v>-42481</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42482</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C43" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E43" s="4">
         <v>42482</v>
@@ -3452,270 +3878,270 @@
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>57</v>
+      <c r="B44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E44" s="4">
-        <v>42482</v>
+        <v>42483</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>58</v>
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="4">
-        <v>42482</v>
+        <v>12</v>
+      </c>
+      <c r="E45" s="5">
+        <v>42483</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>59</v>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="4">
-        <v>42482</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="5">
+        <v>42483</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>60</v>
+      <c r="B47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="4">
-        <v>42482</v>
+        <v>37</v>
+      </c>
+      <c r="E47" s="5">
+        <v>42483</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>61</v>
+      <c r="B48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="4">
-        <v>42482</v>
+        <v>37</v>
+      </c>
+      <c r="E48" s="5">
+        <v>42483</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>62</v>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="4">
-        <v>42482</v>
+      <c r="E49" s="5">
+        <v>42483</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>63</v>
+      <c r="B50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="4">
-        <v>42482</v>
+        <v>15</v>
+      </c>
+      <c r="E50" s="5">
+        <v>42483</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>64</v>
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="4">
-        <v>42482</v>
+        <v>15</v>
+      </c>
+      <c r="E51" s="5">
+        <v>42483</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-42483</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>65</v>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="4">
-        <v>42482</v>
+        <v>15</v>
+      </c>
+      <c r="E52" s="5">
+        <v>42483</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="3"/>
-        <v>-42482</v>
-      </c>
-      <c r="J52" s="1"/>
+        <v>-42483</v>
+      </c>
+      <c r="J52" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J52"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
       <formula1>"高,较高,中,较低,低"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/yourtour/documents/游客APP开发计划.xlsx
+++ b/yourtour/documents/游客APP开发计划.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16973" windowHeight="8015"/>
+    <workbookView windowWidth="17293" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="游客APP开发计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游客APP开发计划!$A$1:$J$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游客APP开发计划!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>序号</t>
   </si>
@@ -37,7 +37,10 @@
     <t>UI设计</t>
   </si>
   <si>
-    <t>开发</t>
+    <t>开发开始</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>H1</t>
@@ -100,7 +103,7 @@
     <t>服务订购页</t>
   </si>
   <si>
-    <t>服务支付页</t>
+    <t>服务支付选择页</t>
   </si>
   <si>
     <t>目的地</t>
@@ -245,7 +248,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +272,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,37 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -336,18 +339,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,17 +371,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,36 +400,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +476,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,37 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,37 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,25 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,19 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +688,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,7 +716,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,21 +747,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,166 +776,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,10 +939,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1099,7 @@
                   <c:v>服务订购页</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>服务支付页</c:v>
+                  <c:v>服务支付选择页</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>目的地首页</c:v>
@@ -1155,7 +1220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>游客APP开发计划!$H$2:$H$52</c:f>
+              <c:f>游客APP开发计划!$I$2:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1371,7 +1436,7 @@
                   <c:v>服务订购页</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>服务支付页</c:v>
+                  <c:v>服务支付选择页</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>目的地首页</c:v>
@@ -1492,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>游客APP开发计划!$I$2:$I$52</c:f>
+              <c:f>游客APP开发计划!$J$2:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1506,91 +1571,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="General">
-                  <c:v>-42473</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="General">
-                  <c:v>-42473</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="General">
-                  <c:v>-42473</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="General">
-                  <c:v>-42473</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="General">
-                  <c:v>-42473</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="General">
-                  <c:v>-42478</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="General">
-                  <c:v>-42478</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="General">
-                  <c:v>-42478</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="General">
-                  <c:v>-42478</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="General">
-                  <c:v>-42478</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="General">
-                  <c:v>-42474</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="General">
-                  <c:v>-42474</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="General">
-                  <c:v>-42474</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>-42475</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="General">
-                  <c:v>-42475</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="General">
-                  <c:v>-42475</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="General">
-                  <c:v>-42475</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="General">
-                  <c:v>-42475</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="24" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="25" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="26" c:formatCode="General">
-                  <c:v>-42479</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="27" c:formatCode="General">
-                  <c:v>-42480</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28" c:formatCode="General">
-                  <c:v>-42480</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29" c:formatCode="General">
-                  <c:v>-42480</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="30" c:formatCode="General">
-                  <c:v>-42480</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="31" c:formatCode="General">
-                  <c:v>-42480</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="32" c:formatCode="General">
                   <c:v>-42481</c:v>
@@ -1662,13 +1727,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="363838688"/>
-        <c:axId val="363835552"/>
+        <c:axId val="195173736"/>
+        <c:axId val="244562864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363838688"/>
+        <c:axId val="195173736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1710,7 +1775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363835552"/>
+        <c:crossAx val="244562864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,11 +1784,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363835552"/>
+        <c:axId val="244562864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
-          <c:min val="13"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1758,7 +1823,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1772,10 +1837,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363838688"/>
+        <c:crossAx val="195173736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2370,13 +2435,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -2387,8 +2452,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7943850" y="76200"/>
-        <a:ext cx="7077075" cy="9589770"/>
+        <a:off x="9071610" y="76200"/>
+        <a:ext cx="7191375" cy="9589770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2660,25 +2725,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.87704918032787" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="7.62295081967213" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="0.25" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="6" max="8" width="12.6229508196721" customWidth="1"/>
+    <col min="9" max="10" width="0.377049180327869" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:10">
+    <row r="1" ht="15.6" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,10 +2762,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2709,1431 +2774,1697 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H33" si="0">DAY(E2)</f>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I5" si="0">DAY(E2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I33" si="1">G2-E2</f>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J5" si="1">H2-E2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
         <v>42473</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2">
+      <c r="F5" s="7">
+        <v>42475</v>
+      </c>
+      <c r="G5" s="8">
+        <v>42479</v>
+      </c>
+      <c r="H5" s="7">
+        <v>42489</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
-        <v>-42473</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42473</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42475</v>
+      </c>
+      <c r="G6" s="8">
+        <v>42479</v>
+      </c>
+      <c r="H6" s="7">
+        <v>42489</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I52" si="2">DAY(E6)</f>
+        <v>13</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J52" si="3">H6-E6</f>
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>42473</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H52" si="2">DAY(E6)</f>
-        <v>13</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" ref="I6:I52" si="3">G6-E6</f>
-        <v>-42473</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42473</v>
+      </c>
+      <c r="F7" s="7">
+        <v>42475</v>
+      </c>
+      <c r="G7" s="8">
+        <v>42479</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42489</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>42473</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>-42473</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>42473</v>
+      </c>
+      <c r="F8" s="7">
+        <v>42475</v>
+      </c>
+      <c r="G8" s="8">
+        <v>42479</v>
+      </c>
+      <c r="H8" s="7">
+        <v>42489</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>42473</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>-42473</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>42473</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="F9" s="7">
+        <v>42475</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42479</v>
+      </c>
+      <c r="H9" s="7">
+        <v>42489</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>-42473</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9">
         <v>42478</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="F10" s="9">
+        <v>42483</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42516</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42519</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9">
         <v>42478</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="F11" s="9">
+        <v>42483</v>
+      </c>
+      <c r="G11" s="8">
+        <v>42516</v>
+      </c>
+      <c r="H11" s="9">
+        <v>42519</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9">
         <v>42478</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="F12" s="9">
+        <v>42483</v>
+      </c>
+      <c r="G12" s="8">
+        <v>42516</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42519</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9">
         <v>42478</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="F13" s="9">
+        <v>42483</v>
+      </c>
+      <c r="G13" s="8">
+        <v>42516</v>
+      </c>
+      <c r="H13" s="9">
+        <v>42519</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
         <v>42478</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="F14" s="9">
+        <v>42483</v>
+      </c>
+      <c r="G14" s="8">
+        <v>42516</v>
+      </c>
+      <c r="H14" s="9">
+        <v>42519</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="3"/>
-        <v>-42478</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10">
         <v>42474</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="F15" s="10">
+        <v>42477</v>
+      </c>
+      <c r="G15" s="8">
+        <v>42489</v>
+      </c>
+      <c r="H15" s="10">
+        <v>42500</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="3"/>
-        <v>-42474</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10">
         <v>42474</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="F16" s="10">
+        <v>42477</v>
+      </c>
+      <c r="G16" s="8">
+        <v>42489</v>
+      </c>
+      <c r="H16" s="10">
+        <v>42500</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="3"/>
-        <v>-42474</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10">
         <v>42474</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="F17" s="10">
+        <v>42477</v>
+      </c>
+      <c r="G17" s="8">
+        <v>42489</v>
+      </c>
+      <c r="H17" s="10">
+        <v>42500</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="3"/>
-        <v>-42474</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11">
+        <v>42475</v>
+      </c>
+      <c r="F18" s="11">
+        <v>42477</v>
+      </c>
+      <c r="G18" s="8">
+        <v>42500</v>
+      </c>
+      <c r="H18" s="11">
+        <v>42503</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42475</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="3"/>
-        <v>-42475</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="11">
+        <v>42475</v>
+      </c>
+      <c r="F19" s="11">
+        <v>42477</v>
+      </c>
+      <c r="G19" s="8">
+        <v>42500</v>
+      </c>
+      <c r="H19" s="11">
+        <v>42503</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4">
-        <v>42475</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>-42475</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11">
+        <v>42475</v>
+      </c>
+      <c r="F20" s="11">
+        <v>42477</v>
+      </c>
+      <c r="G20" s="8">
+        <v>42500</v>
+      </c>
+      <c r="H20" s="11">
+        <v>42503</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>42475</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>-42475</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11">
+        <v>42475</v>
+      </c>
+      <c r="F21" s="11">
+        <v>42477</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42500</v>
+      </c>
+      <c r="H21" s="11">
+        <v>42503</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4">
-        <v>42475</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>-42475</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="11">
+        <v>42475</v>
+      </c>
+      <c r="F22" s="11">
+        <v>42477</v>
+      </c>
+      <c r="G22" s="8">
+        <v>42500</v>
+      </c>
+      <c r="H22" s="11">
+        <v>42503</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4">
-        <v>42475</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="3"/>
-        <v>-42475</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12">
         <v>42479</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
+      <c r="F23" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G23" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H23" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4">
+        <v>13</v>
+      </c>
+      <c r="E24" s="12">
         <v>42479</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="F24" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G24" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H24" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5">
+        <v>13</v>
+      </c>
+      <c r="E25" s="12">
         <v>42479</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="F25" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G25" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H25" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5">
+        <v>38</v>
+      </c>
+      <c r="E26" s="12">
         <v>42479</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
+      <c r="F26" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G26" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H26" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5">
+        <v>38</v>
+      </c>
+      <c r="E27" s="12">
         <v>42479</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
+      <c r="F27" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G27" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H27" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5">
+        <v>13</v>
+      </c>
+      <c r="E28" s="12">
         <v>42479</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
+      <c r="F28" s="12">
+        <v>42480</v>
+      </c>
+      <c r="G28" s="8">
+        <v>42509</v>
+      </c>
+      <c r="H28" s="12">
+        <v>42515</v>
+      </c>
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="3"/>
-        <v>-42479</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
+        <v>13</v>
+      </c>
+      <c r="E29" s="11">
         <v>42480</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="F29" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G29" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H29" s="11">
+        <v>42536</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5">
+        <v>13</v>
+      </c>
+      <c r="E30" s="11">
         <v>42480</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
+      <c r="F30" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G30" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H30" s="11">
+        <v>42536</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5">
+        <v>13</v>
+      </c>
+      <c r="E31" s="11">
         <v>42480</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2">
+      <c r="F31" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G31" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H31" s="11">
+        <v>42536</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11">
         <v>42480</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
+      <c r="F32" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G32" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H32" s="11">
+        <v>42536</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
+        <v>13</v>
+      </c>
+      <c r="E33" s="11">
         <v>42480</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2">
+      <c r="F33" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G33" s="8">
+        <v>42522</v>
+      </c>
+      <c r="H33" s="11">
+        <v>42536</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="3"/>
-        <v>-42480</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="4">
+        <v>38</v>
+      </c>
+      <c r="E34" s="8">
         <v>42481</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
+      <c r="F34" s="8">
+        <v>42485</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>-42481</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="5">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13">
         <v>42481</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2">
+      <c r="F35" s="8">
+        <v>42485</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>-42481</v>
       </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="5">
+        <v>38</v>
+      </c>
+      <c r="E36" s="13">
         <v>42481</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2">
+      <c r="F36" s="8">
+        <v>42485</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>-42481</v>
       </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5">
+        <v>38</v>
+      </c>
+      <c r="E37" s="13">
         <v>42481</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2">
+      <c r="F37" s="8">
+        <v>42485</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>-42481</v>
       </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="4">
+        <v>38</v>
+      </c>
+      <c r="E38" s="8">
         <v>42482</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2">
+      <c r="F38" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
+        <v>13</v>
+      </c>
+      <c r="E39" s="13">
         <v>42482</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2">
+      <c r="F39" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5">
+        <v>13</v>
+      </c>
+      <c r="E40" s="13">
         <v>42482</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2">
+      <c r="F40" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="5">
+        <v>13</v>
+      </c>
+      <c r="E41" s="13">
         <v>42482</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2">
+      <c r="F41" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5">
+        <v>13</v>
+      </c>
+      <c r="E42" s="13">
         <v>42482</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2">
+      <c r="F42" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="4">
+        <v>38</v>
+      </c>
+      <c r="E43" s="8">
         <v>42482</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2">
+      <c r="F43" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f t="shared" si="3"/>
         <v>-42482</v>
       </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4">
+        <v>13</v>
+      </c>
+      <c r="E44" s="8">
         <v>42483</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2">
+      <c r="F44" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="5">
+        <v>13</v>
+      </c>
+      <c r="E45" s="13">
         <v>42483</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2">
+      <c r="F45" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="5">
+        <v>13</v>
+      </c>
+      <c r="E46" s="13">
         <v>42483</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2">
+      <c r="F46" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5">
+        <v>38</v>
+      </c>
+      <c r="E47" s="13">
         <v>42483</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2">
+      <c r="F47" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="5">
+        <v>38</v>
+      </c>
+      <c r="E48" s="13">
         <v>42483</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2">
+      <c r="F48" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="5">
+        <v>69</v>
+      </c>
+      <c r="E49" s="13">
         <v>42483</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2">
+      <c r="F49" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="5">
+        <v>16</v>
+      </c>
+      <c r="E50" s="13">
         <v>42483</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2">
+      <c r="F50" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="5">
+        <v>16</v>
+      </c>
+      <c r="E51" s="13">
         <v>42483</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2">
+      <c r="F51" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5">
+        <v>16</v>
+      </c>
+      <c r="E52" s="13">
         <v>42483</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2">
+      <c r="F52" s="8">
+        <v>42490</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <f t="shared" si="3"/>
         <v>-42483</v>
       </c>
-      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J52"/>
+  <autoFilter ref="A1:K52"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
       <formula1>"高,较高,中,较低,低"</formula1>

--- a/yourtour/documents/游客APP开发计划.xlsx
+++ b/yourtour/documents/游客APP开发计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\yt\yourtour\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="17293" windowHeight="8028"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="游客APP开发计划" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游客APP开发计划!$A$1:$K$52</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -85,9 +90,6 @@
     <t>游徒推荐详情页</t>
   </si>
   <si>
-    <t>大家都在玩详情页</t>
-  </si>
-  <si>
     <t>服务</t>
   </si>
   <si>
@@ -236,19 +238,33 @@
   </si>
   <si>
     <t>钱包页</t>
+  </si>
+  <si>
+    <t>一期暂不考虑游玩资源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期暂不考虑游客定制行程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现详情页</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>先只做行程发现，不做游玩发现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始内容较少，暂不提供搜索</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,14 +300,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,139 +308,26 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,222 +336,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -678,255 +388,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,7 +416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,59 +440,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1084,7 +520,7 @@
                   <c:v>游徒推荐详情页</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>大家都在玩详情页</c:v>
+                  <c:v>发现详情页</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>服务首页</c:v>
@@ -1224,157 +660,157 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="General">
+                <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="General">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="General">
+                <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="General">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="General">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="General">
+                <c:pt idx="15">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="General">
+                <c:pt idx="16">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="General">
+                <c:pt idx="17">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="General">
+                <c:pt idx="18">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="General">
+                <c:pt idx="19">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="General">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="General">
+                <c:pt idx="21">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="General">
+                <c:pt idx="22">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="General">
+                <c:pt idx="23">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="General">
+                <c:pt idx="24">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="General">
+                <c:pt idx="25">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="General">
+                <c:pt idx="26">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="General">
+                <c:pt idx="27">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="General">
+                <c:pt idx="28">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="General">
+                <c:pt idx="29">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="General">
+                <c:pt idx="30">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="31" c:formatCode="General">
+                <c:pt idx="31">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="32" c:formatCode="General">
+                <c:pt idx="32">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="33" c:formatCode="General">
+                <c:pt idx="33">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="34" c:formatCode="General">
+                <c:pt idx="34">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="35" c:formatCode="General">
+                <c:pt idx="35">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="36" c:formatCode="General">
+                <c:pt idx="36">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="37" c:formatCode="General">
+                <c:pt idx="37">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="38" c:formatCode="General">
+                <c:pt idx="38">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="39" c:formatCode="General">
+                <c:pt idx="39">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="40" c:formatCode="General">
+                <c:pt idx="40">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="41" c:formatCode="General">
+                <c:pt idx="41">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="42" c:formatCode="General">
+                <c:pt idx="42">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="43" c:formatCode="General">
+                <c:pt idx="43">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="44" c:formatCode="General">
+                <c:pt idx="44">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="45" c:formatCode="General">
+                <c:pt idx="45">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="46" c:formatCode="General">
+                <c:pt idx="46">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="47" c:formatCode="General">
+                <c:pt idx="47">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="48" c:formatCode="General">
+                <c:pt idx="48">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="49" c:formatCode="General">
+                <c:pt idx="49">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="50" c:formatCode="General">
+                <c:pt idx="50">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1421,7 +857,7 @@
                   <c:v>游徒推荐详情页</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>大家都在玩详情页</c:v>
+                  <c:v>发现详情页</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>服务首页</c:v>
@@ -1561,157 +997,157 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="General">
+                <c:pt idx="10">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="General">
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="General">
+                <c:pt idx="12">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="General">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="General">
+                <c:pt idx="14">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="General">
+                <c:pt idx="15">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="General">
+                <c:pt idx="16">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="General">
+                <c:pt idx="17">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="General">
+                <c:pt idx="18">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="General">
+                <c:pt idx="19">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="General">
+                <c:pt idx="20">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="General">
+                <c:pt idx="21">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="General">
+                <c:pt idx="22">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="General">
+                <c:pt idx="23">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="General">
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="General">
+                <c:pt idx="25">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="General">
+                <c:pt idx="26">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="General">
+                <c:pt idx="27">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="General">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="General">
+                <c:pt idx="29">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="General">
+                <c:pt idx="30">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="31" c:formatCode="General">
+                <c:pt idx="31">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="32" c:formatCode="General">
+                <c:pt idx="32">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="33" c:formatCode="General">
+                <c:pt idx="33">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="34" c:formatCode="General">
+                <c:pt idx="34">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="35" c:formatCode="General">
+                <c:pt idx="35">
                   <c:v>-42481</c:v>
                 </c:pt>
-                <c:pt idx="36" c:formatCode="General">
+                <c:pt idx="36">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="37" c:formatCode="General">
+                <c:pt idx="37">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="38" c:formatCode="General">
+                <c:pt idx="38">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="39" c:formatCode="General">
+                <c:pt idx="39">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="40" c:formatCode="General">
+                <c:pt idx="40">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="41" c:formatCode="General">
+                <c:pt idx="41">
                   <c:v>-42482</c:v>
                 </c:pt>
-                <c:pt idx="42" c:formatCode="General">
+                <c:pt idx="42">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="43" c:formatCode="General">
+                <c:pt idx="43">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="44" c:formatCode="General">
+                <c:pt idx="44">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="45" c:formatCode="General">
+                <c:pt idx="45">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="46" c:formatCode="General">
+                <c:pt idx="46">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="47" c:formatCode="General">
+                <c:pt idx="47">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="48" c:formatCode="General">
+                <c:pt idx="48">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="49" c:formatCode="General">
+                <c:pt idx="49">
                   <c:v>-42483</c:v>
                 </c:pt>
-                <c:pt idx="50" c:formatCode="General">
+                <c:pt idx="50">
                   <c:v>-42483</c:v>
                 </c:pt>
               </c:numCache>
@@ -1719,7 +1155,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1729,11 +1164,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="195173736"/>
-        <c:axId val="244562864"/>
+        <c:axId val="188439528"/>
+        <c:axId val="189193040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195173736"/>
+        <c:axId val="188439528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,9 +1208,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244562864"/>
+        <c:crossAx val="189193040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244562864"/>
+        <c:axId val="189193040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1794,7 +1230,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1835,9 +1270,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195173736"/>
+        <c:crossAx val="188439528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1876,11 +1312,12 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2432,7 +1869,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2446,14 +1883,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9071610" y="76200"/>
-        <a:ext cx="7191375" cy="9589770"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,10 +1908,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="31363B"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2723,27 +2160,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.87704918032787" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="7.62295081967213" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="8" width="12.6229508196721" customWidth="1"/>
-    <col min="9" max="10" width="0.377049180327869" customWidth="1"/>
+    <col min="6" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="10" width="0.375" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:11">
+    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2805,7 +2241,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2832,7 +2268,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2859,7 +2295,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2894,7 +2330,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2905,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7">
         <v>42473</v>
@@ -2927,9 +2363,11 @@
         <f t="shared" ref="J6:J52" si="3">H6-E6</f>
         <v>16</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2964,7 +2402,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2999,15 +2437,15 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
+      <c r="C9" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -3032,17 +2470,19 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -3069,15 +2509,15 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -3104,15 +2544,15 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -3139,15 +2579,15 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -3174,15 +2614,15 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -3209,15 +2649,15 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -3244,15 +2684,15 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
@@ -3279,15 +2719,15 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -3314,15 +2754,15 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -3349,15 +2789,15 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -3384,18 +2824,18 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="11">
         <v>42475</v>
@@ -3417,17 +2857,19 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -3454,18 +2896,18 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E22" s="11">
         <v>42475</v>
@@ -3489,15 +2931,15 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -3524,15 +2966,15 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -3559,18 +3001,18 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="12">
         <v>42479</v>
@@ -3592,20 +3034,22 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="12">
         <v>42479</v>
@@ -3629,18 +3073,18 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="12">
         <v>42479</v>
@@ -3664,15 +3108,15 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
@@ -3699,15 +3143,15 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -3734,15 +3178,15 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
@@ -3769,15 +3213,15 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -3804,18 +3248,18 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32" s="11">
         <v>42480</v>
@@ -3837,17 +3281,19 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -3874,18 +3320,18 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="8">
         <v>42481</v>
@@ -3905,18 +3351,18 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="13">
         <v>42481</v>
@@ -3936,18 +3382,18 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="13">
         <v>42481</v>
@@ -3967,18 +3413,18 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="13">
         <v>42481</v>
@@ -3998,18 +3444,18 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="8">
         <v>42482</v>
@@ -4029,15 +3475,15 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
@@ -4060,15 +3506,15 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
@@ -4091,15 +3537,15 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -4122,15 +3568,15 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
@@ -4153,18 +3599,18 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="8">
         <v>42482</v>
@@ -4184,15 +3630,15 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
@@ -4215,15 +3661,15 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>13</v>
@@ -4246,15 +3692,15 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>13</v>
@@ -4277,18 +3723,18 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="13">
         <v>42483</v>
@@ -4308,18 +3754,18 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="13">
         <v>42483</v>
@@ -4339,18 +3785,18 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E49" s="13">
         <v>42483</v>
@@ -4370,15 +3816,15 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>16</v>
@@ -4401,15 +3847,15 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>16</v>
@@ -4432,15 +3878,15 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>16</v>
@@ -4465,14 +3911,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
       <formula1>"高,较高,中,较低,低"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>